--- a/data/fuels.xlsx
+++ b/data/fuels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Fuel_data" sheetId="1" r:id="rId1"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1209,7 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/data/fuels.xlsx
+++ b/data/fuels.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\global_shipping_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mscle\Documents\Models\global_shipping_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fuel_data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Hydrogen</t>
   </si>
@@ -175,7 +175,7 @@
     <t>gCO2eq/MJ</t>
   </si>
   <si>
-    <t>#gCO2eq/MJ</t>
+    <t>"</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -552,17 +552,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:J42"/>
+      <selection activeCell="B43" sqref="B43:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1096,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:15">
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:15">
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
@@ -1112,12 +1113,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:15">
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:15">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,78 +1126,187 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:15">
       <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="B42" t="s">
+    <row r="42" spans="1:15">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1" t="str">
+        <f>+$A$42&amp;B43&amp;$A$42</f>
+        <v>"HFO"</v>
+      </c>
+      <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="C43" s="1">
         <f>+SUM(D22:D23)</f>
         <v>86</v>
       </c>
-      <c r="C43" s="1">
+      <c r="E43" s="1">
+        <v>86</v>
+      </c>
+      <c r="G43" s="1">
+        <v>86</v>
+      </c>
+      <c r="H43" s="1">
+        <v>86</v>
+      </c>
+      <c r="I43" s="1">
+        <v>66</v>
+      </c>
+      <c r="J43" s="1">
+        <v>73</v>
+      </c>
+      <c r="K43" s="1">
+        <v>94</v>
+      </c>
+      <c r="L43" s="1">
+        <v>90</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>2</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0.147222222222222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1" t="str">
+        <f t="shared" ref="A44:A51" si="0">+$A$42&amp;B44&amp;$A$42</f>
+        <v>"MDO"</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
         <f>+SUM(C22:C23)</f>
         <v>86</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E44" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"LNG"</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1">
         <f>+SUM(E22:E23)</f>
         <v>66</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E45" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"LPG"</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
         <f>+SUM(G22:G23)</f>
         <v>73</v>
       </c>
-      <c r="F43" s="1">
+      <c r="E46" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"MET"</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1">
         <f>+SUM(H22:H23)</f>
         <v>94</v>
       </c>
-      <c r="G43" s="1">
+      <c r="E47" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"HYB"</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1">
         <f>+SUM(L22:L23)</f>
         <v>90</v>
       </c>
-      <c r="H43" s="1">
+      <c r="E48" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"HYG"</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1">
         <f>+SUM(M22:M23)</f>
         <v>2</v>
       </c>
-      <c r="I43" s="1">
-        <f>+H43</f>
+      <c r="E49" s="1">
         <v>2</v>
       </c>
-      <c r="J43" s="2">
-        <f>+S5/3.6</f>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"AMM"</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="1">
+        <f>+C49</f>
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"ELC"</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="2">
+        <f>+SUM(S5)/3.6</f>
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="E51" s="1">
         <v>0.14722222222222223</v>
       </c>
     </row>
@@ -1207,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L3"/>
+  <dimension ref="B2:BO35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1225,6 +1335,2067 @@
         <v>11</v>
       </c>
     </row>
+    <row r="26" spans="2:67">
+      <c r="C26">
+        <v>2011</v>
+      </c>
+      <c r="D26">
+        <f>+C26+1</f>
+        <v>2012</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:BO26" si="0">+D26+1</f>
+        <v>2013</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="0"/>
+        <v>2051</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="0"/>
+        <v>2052</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="0"/>
+        <v>2053</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="0"/>
+        <v>2054</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="0"/>
+        <v>2056</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="0"/>
+        <v>2057</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="0"/>
+        <v>2058</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="0"/>
+        <v>2059</v>
+      </c>
+      <c r="AZ26">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="BA26">
+        <f t="shared" si="0"/>
+        <v>2061</v>
+      </c>
+      <c r="BB26">
+        <f t="shared" si="0"/>
+        <v>2062</v>
+      </c>
+      <c r="BC26">
+        <f t="shared" si="0"/>
+        <v>2063</v>
+      </c>
+      <c r="BD26">
+        <f t="shared" si="0"/>
+        <v>2064</v>
+      </c>
+      <c r="BE26">
+        <f t="shared" si="0"/>
+        <v>2065</v>
+      </c>
+      <c r="BF26">
+        <f t="shared" si="0"/>
+        <v>2066</v>
+      </c>
+      <c r="BG26">
+        <f t="shared" si="0"/>
+        <v>2067</v>
+      </c>
+      <c r="BH26">
+        <f t="shared" si="0"/>
+        <v>2068</v>
+      </c>
+      <c r="BI26">
+        <f t="shared" si="0"/>
+        <v>2069</v>
+      </c>
+      <c r="BJ26">
+        <f t="shared" si="0"/>
+        <v>2070</v>
+      </c>
+      <c r="BK26">
+        <f t="shared" si="0"/>
+        <v>2071</v>
+      </c>
+      <c r="BL26">
+        <f t="shared" si="0"/>
+        <v>2072</v>
+      </c>
+      <c r="BM26">
+        <f t="shared" si="0"/>
+        <v>2073</v>
+      </c>
+      <c r="BN26">
+        <f t="shared" si="0"/>
+        <v>2074</v>
+      </c>
+      <c r="BO26">
+        <f t="shared" si="0"/>
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="27" spans="2:67">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0.75</v>
+      </c>
+      <c r="D27">
+        <v>0.75</v>
+      </c>
+      <c r="E27">
+        <v>0.75</v>
+      </c>
+      <c r="F27">
+        <v>0.75</v>
+      </c>
+      <c r="G27">
+        <v>0.75</v>
+      </c>
+      <c r="H27">
+        <v>0.75</v>
+      </c>
+      <c r="I27">
+        <v>0.75</v>
+      </c>
+      <c r="J27">
+        <v>0.75</v>
+      </c>
+      <c r="K27">
+        <v>0.75</v>
+      </c>
+      <c r="L27">
+        <v>0.75</v>
+      </c>
+      <c r="M27">
+        <v>0.75</v>
+      </c>
+      <c r="N27">
+        <v>0.75</v>
+      </c>
+      <c r="O27">
+        <v>0.75</v>
+      </c>
+      <c r="P27">
+        <v>0.75</v>
+      </c>
+      <c r="Q27">
+        <v>0.75</v>
+      </c>
+      <c r="R27">
+        <v>0.75</v>
+      </c>
+      <c r="S27">
+        <v>0.75</v>
+      </c>
+      <c r="T27">
+        <v>0.75</v>
+      </c>
+      <c r="U27">
+        <v>0.75</v>
+      </c>
+      <c r="V27">
+        <v>0.75</v>
+      </c>
+      <c r="W27">
+        <v>0.75</v>
+      </c>
+      <c r="X27">
+        <v>0.75</v>
+      </c>
+      <c r="Y27">
+        <v>0.75</v>
+      </c>
+      <c r="Z27">
+        <v>0.75</v>
+      </c>
+      <c r="AA27">
+        <v>0.75</v>
+      </c>
+      <c r="AB27">
+        <v>0.75</v>
+      </c>
+      <c r="AC27">
+        <v>0.75</v>
+      </c>
+      <c r="AD27">
+        <v>0.75</v>
+      </c>
+      <c r="AE27">
+        <v>0.75</v>
+      </c>
+      <c r="AF27">
+        <v>0.75</v>
+      </c>
+      <c r="AG27">
+        <v>0.75</v>
+      </c>
+      <c r="AH27">
+        <v>0.75</v>
+      </c>
+      <c r="AI27">
+        <v>0.75</v>
+      </c>
+      <c r="AJ27">
+        <v>0.75</v>
+      </c>
+      <c r="AK27">
+        <v>0.75</v>
+      </c>
+      <c r="AL27">
+        <v>0.75</v>
+      </c>
+      <c r="AM27">
+        <v>0.75</v>
+      </c>
+      <c r="AN27">
+        <v>0.75</v>
+      </c>
+      <c r="AO27">
+        <v>0.75</v>
+      </c>
+      <c r="AP27">
+        <v>0.75</v>
+      </c>
+      <c r="AQ27">
+        <v>0.75</v>
+      </c>
+      <c r="AR27">
+        <v>0.75</v>
+      </c>
+      <c r="AS27">
+        <v>0.75</v>
+      </c>
+      <c r="AT27">
+        <v>0.75</v>
+      </c>
+      <c r="AU27">
+        <v>0.75</v>
+      </c>
+      <c r="AV27">
+        <v>0.75</v>
+      </c>
+      <c r="AW27">
+        <v>0.75</v>
+      </c>
+      <c r="AX27">
+        <v>0.75</v>
+      </c>
+      <c r="AY27">
+        <v>0.75</v>
+      </c>
+      <c r="AZ27">
+        <v>0.75</v>
+      </c>
+      <c r="BA27">
+        <v>0.75</v>
+      </c>
+      <c r="BB27">
+        <v>0.75</v>
+      </c>
+      <c r="BC27">
+        <v>0.75</v>
+      </c>
+      <c r="BD27">
+        <v>0.75</v>
+      </c>
+      <c r="BE27">
+        <v>0.75</v>
+      </c>
+      <c r="BF27">
+        <v>0.75</v>
+      </c>
+      <c r="BG27">
+        <v>0.75</v>
+      </c>
+      <c r="BH27">
+        <v>0.75</v>
+      </c>
+      <c r="BI27">
+        <v>0.75</v>
+      </c>
+      <c r="BJ27">
+        <v>0.75</v>
+      </c>
+      <c r="BK27">
+        <v>0.75</v>
+      </c>
+      <c r="BL27">
+        <v>0.75</v>
+      </c>
+      <c r="BM27">
+        <v>0.75</v>
+      </c>
+      <c r="BN27">
+        <v>0.75</v>
+      </c>
+      <c r="BO27">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:67">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>1.25</v>
+      </c>
+      <c r="D28">
+        <v>1.25</v>
+      </c>
+      <c r="E28">
+        <v>1.25</v>
+      </c>
+      <c r="F28">
+        <v>1.25</v>
+      </c>
+      <c r="G28">
+        <v>1.25</v>
+      </c>
+      <c r="H28">
+        <v>1.25</v>
+      </c>
+      <c r="I28">
+        <v>1.25</v>
+      </c>
+      <c r="J28">
+        <v>1.25</v>
+      </c>
+      <c r="K28">
+        <v>1.25</v>
+      </c>
+      <c r="L28">
+        <v>1.25</v>
+      </c>
+      <c r="M28">
+        <v>1.25</v>
+      </c>
+      <c r="N28">
+        <v>1.25</v>
+      </c>
+      <c r="O28">
+        <v>1.25</v>
+      </c>
+      <c r="P28">
+        <v>1.25</v>
+      </c>
+      <c r="Q28">
+        <v>1.25</v>
+      </c>
+      <c r="R28">
+        <v>1.25</v>
+      </c>
+      <c r="S28">
+        <v>1.25</v>
+      </c>
+      <c r="T28">
+        <v>1.25</v>
+      </c>
+      <c r="U28">
+        <v>1.25</v>
+      </c>
+      <c r="V28">
+        <v>1.25</v>
+      </c>
+      <c r="W28">
+        <v>1.25</v>
+      </c>
+      <c r="X28">
+        <v>1.25</v>
+      </c>
+      <c r="Y28">
+        <v>1.25</v>
+      </c>
+      <c r="Z28">
+        <v>1.25</v>
+      </c>
+      <c r="AA28">
+        <v>1.25</v>
+      </c>
+      <c r="AB28">
+        <v>1.25</v>
+      </c>
+      <c r="AC28">
+        <v>1.25</v>
+      </c>
+      <c r="AD28">
+        <v>1.25</v>
+      </c>
+      <c r="AE28">
+        <v>1.25</v>
+      </c>
+      <c r="AF28">
+        <v>1.25</v>
+      </c>
+      <c r="AG28">
+        <v>1.25</v>
+      </c>
+      <c r="AH28">
+        <v>1.25</v>
+      </c>
+      <c r="AI28">
+        <v>1.25</v>
+      </c>
+      <c r="AJ28">
+        <v>1.25</v>
+      </c>
+      <c r="AK28">
+        <v>1.25</v>
+      </c>
+      <c r="AL28">
+        <v>1.25</v>
+      </c>
+      <c r="AM28">
+        <v>1.25</v>
+      </c>
+      <c r="AN28">
+        <v>1.25</v>
+      </c>
+      <c r="AO28">
+        <v>1.25</v>
+      </c>
+      <c r="AP28">
+        <v>1.25</v>
+      </c>
+      <c r="AQ28">
+        <v>1.25</v>
+      </c>
+      <c r="AR28">
+        <v>1.25</v>
+      </c>
+      <c r="AS28">
+        <v>1.25</v>
+      </c>
+      <c r="AT28">
+        <v>1.25</v>
+      </c>
+      <c r="AU28">
+        <v>1.25</v>
+      </c>
+      <c r="AV28">
+        <v>1.25</v>
+      </c>
+      <c r="AW28">
+        <v>1.25</v>
+      </c>
+      <c r="AX28">
+        <v>1.25</v>
+      </c>
+      <c r="AY28">
+        <v>1.25</v>
+      </c>
+      <c r="AZ28">
+        <v>1.25</v>
+      </c>
+      <c r="BA28">
+        <v>1.25</v>
+      </c>
+      <c r="BB28">
+        <v>1.25</v>
+      </c>
+      <c r="BC28">
+        <v>1.25</v>
+      </c>
+      <c r="BD28">
+        <v>1.25</v>
+      </c>
+      <c r="BE28">
+        <v>1.25</v>
+      </c>
+      <c r="BF28">
+        <v>1.25</v>
+      </c>
+      <c r="BG28">
+        <v>1.25</v>
+      </c>
+      <c r="BH28">
+        <v>1.25</v>
+      </c>
+      <c r="BI28">
+        <v>1.25</v>
+      </c>
+      <c r="BJ28">
+        <v>1.25</v>
+      </c>
+      <c r="BK28">
+        <v>1.25</v>
+      </c>
+      <c r="BL28">
+        <v>1.25</v>
+      </c>
+      <c r="BM28">
+        <v>1.25</v>
+      </c>
+      <c r="BN28">
+        <v>1.25</v>
+      </c>
+      <c r="BO28">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:67">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0.8</v>
+      </c>
+      <c r="D29">
+        <v>0.8</v>
+      </c>
+      <c r="E29">
+        <v>0.8</v>
+      </c>
+      <c r="F29">
+        <v>0.8</v>
+      </c>
+      <c r="G29">
+        <v>0.8</v>
+      </c>
+      <c r="H29">
+        <v>0.8</v>
+      </c>
+      <c r="I29">
+        <v>0.8</v>
+      </c>
+      <c r="J29">
+        <v>0.8</v>
+      </c>
+      <c r="K29">
+        <v>0.8</v>
+      </c>
+      <c r="L29">
+        <v>0.8</v>
+      </c>
+      <c r="M29">
+        <v>0.8</v>
+      </c>
+      <c r="N29">
+        <v>0.8</v>
+      </c>
+      <c r="O29">
+        <v>0.8</v>
+      </c>
+      <c r="P29">
+        <v>0.8</v>
+      </c>
+      <c r="Q29">
+        <v>0.8</v>
+      </c>
+      <c r="R29">
+        <v>0.8</v>
+      </c>
+      <c r="S29">
+        <v>0.8</v>
+      </c>
+      <c r="T29">
+        <v>0.8</v>
+      </c>
+      <c r="U29">
+        <v>0.8</v>
+      </c>
+      <c r="V29">
+        <v>0.8</v>
+      </c>
+      <c r="W29">
+        <v>0.8</v>
+      </c>
+      <c r="X29">
+        <v>0.8</v>
+      </c>
+      <c r="Y29">
+        <v>0.8</v>
+      </c>
+      <c r="Z29">
+        <v>0.8</v>
+      </c>
+      <c r="AA29">
+        <v>0.8</v>
+      </c>
+      <c r="AB29">
+        <v>0.8</v>
+      </c>
+      <c r="AC29">
+        <v>0.8</v>
+      </c>
+      <c r="AD29">
+        <v>0.8</v>
+      </c>
+      <c r="AE29">
+        <v>0.8</v>
+      </c>
+      <c r="AF29">
+        <v>0.8</v>
+      </c>
+      <c r="AG29">
+        <v>0.8</v>
+      </c>
+      <c r="AH29">
+        <v>0.8</v>
+      </c>
+      <c r="AI29">
+        <v>0.8</v>
+      </c>
+      <c r="AJ29">
+        <v>0.8</v>
+      </c>
+      <c r="AK29">
+        <v>0.8</v>
+      </c>
+      <c r="AL29">
+        <v>0.8</v>
+      </c>
+      <c r="AM29">
+        <v>0.8</v>
+      </c>
+      <c r="AN29">
+        <v>0.8</v>
+      </c>
+      <c r="AO29">
+        <v>0.8</v>
+      </c>
+      <c r="AP29">
+        <v>0.8</v>
+      </c>
+      <c r="AQ29">
+        <v>0.8</v>
+      </c>
+      <c r="AR29">
+        <v>0.8</v>
+      </c>
+      <c r="AS29">
+        <v>0.8</v>
+      </c>
+      <c r="AT29">
+        <v>0.8</v>
+      </c>
+      <c r="AU29">
+        <v>0.8</v>
+      </c>
+      <c r="AV29">
+        <v>0.8</v>
+      </c>
+      <c r="AW29">
+        <v>0.8</v>
+      </c>
+      <c r="AX29">
+        <v>0.8</v>
+      </c>
+      <c r="AY29">
+        <v>0.8</v>
+      </c>
+      <c r="AZ29">
+        <v>0.8</v>
+      </c>
+      <c r="BA29">
+        <v>0.8</v>
+      </c>
+      <c r="BB29">
+        <v>0.8</v>
+      </c>
+      <c r="BC29">
+        <v>0.8</v>
+      </c>
+      <c r="BD29">
+        <v>0.8</v>
+      </c>
+      <c r="BE29">
+        <v>0.8</v>
+      </c>
+      <c r="BF29">
+        <v>0.8</v>
+      </c>
+      <c r="BG29">
+        <v>0.8</v>
+      </c>
+      <c r="BH29">
+        <v>0.8</v>
+      </c>
+      <c r="BI29">
+        <v>0.8</v>
+      </c>
+      <c r="BJ29">
+        <v>0.8</v>
+      </c>
+      <c r="BK29">
+        <v>0.8</v>
+      </c>
+      <c r="BL29">
+        <v>0.8</v>
+      </c>
+      <c r="BM29">
+        <v>0.8</v>
+      </c>
+      <c r="BN29">
+        <v>0.8</v>
+      </c>
+      <c r="BO29">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:67">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.9</v>
+      </c>
+      <c r="D30">
+        <v>0.9</v>
+      </c>
+      <c r="E30">
+        <v>0.9</v>
+      </c>
+      <c r="F30">
+        <v>0.9</v>
+      </c>
+      <c r="G30">
+        <v>0.9</v>
+      </c>
+      <c r="H30">
+        <v>0.9</v>
+      </c>
+      <c r="I30">
+        <v>0.9</v>
+      </c>
+      <c r="J30">
+        <v>0.9</v>
+      </c>
+      <c r="K30">
+        <v>0.9</v>
+      </c>
+      <c r="L30">
+        <v>0.9</v>
+      </c>
+      <c r="M30">
+        <v>0.9</v>
+      </c>
+      <c r="N30">
+        <v>0.9</v>
+      </c>
+      <c r="O30">
+        <v>0.9</v>
+      </c>
+      <c r="P30">
+        <v>0.9</v>
+      </c>
+      <c r="Q30">
+        <v>0.9</v>
+      </c>
+      <c r="R30">
+        <v>0.9</v>
+      </c>
+      <c r="S30">
+        <v>0.9</v>
+      </c>
+      <c r="T30">
+        <v>0.9</v>
+      </c>
+      <c r="U30">
+        <v>0.9</v>
+      </c>
+      <c r="V30">
+        <v>0.9</v>
+      </c>
+      <c r="W30">
+        <v>0.9</v>
+      </c>
+      <c r="X30">
+        <v>0.9</v>
+      </c>
+      <c r="Y30">
+        <v>0.9</v>
+      </c>
+      <c r="Z30">
+        <v>0.9</v>
+      </c>
+      <c r="AA30">
+        <v>0.9</v>
+      </c>
+      <c r="AB30">
+        <v>0.9</v>
+      </c>
+      <c r="AC30">
+        <v>0.9</v>
+      </c>
+      <c r="AD30">
+        <v>0.9</v>
+      </c>
+      <c r="AE30">
+        <v>0.9</v>
+      </c>
+      <c r="AF30">
+        <v>0.9</v>
+      </c>
+      <c r="AG30">
+        <v>0.9</v>
+      </c>
+      <c r="AH30">
+        <v>0.9</v>
+      </c>
+      <c r="AI30">
+        <v>0.9</v>
+      </c>
+      <c r="AJ30">
+        <v>0.9</v>
+      </c>
+      <c r="AK30">
+        <v>0.9</v>
+      </c>
+      <c r="AL30">
+        <v>0.9</v>
+      </c>
+      <c r="AM30">
+        <v>0.9</v>
+      </c>
+      <c r="AN30">
+        <v>0.9</v>
+      </c>
+      <c r="AO30">
+        <v>0.9</v>
+      </c>
+      <c r="AP30">
+        <v>0.9</v>
+      </c>
+      <c r="AQ30">
+        <v>0.9</v>
+      </c>
+      <c r="AR30">
+        <v>0.9</v>
+      </c>
+      <c r="AS30">
+        <v>0.9</v>
+      </c>
+      <c r="AT30">
+        <v>0.9</v>
+      </c>
+      <c r="AU30">
+        <v>0.9</v>
+      </c>
+      <c r="AV30">
+        <v>0.9</v>
+      </c>
+      <c r="AW30">
+        <v>0.9</v>
+      </c>
+      <c r="AX30">
+        <v>0.9</v>
+      </c>
+      <c r="AY30">
+        <v>0.9</v>
+      </c>
+      <c r="AZ30">
+        <v>0.9</v>
+      </c>
+      <c r="BA30">
+        <v>0.9</v>
+      </c>
+      <c r="BB30">
+        <v>0.9</v>
+      </c>
+      <c r="BC30">
+        <v>0.9</v>
+      </c>
+      <c r="BD30">
+        <v>0.9</v>
+      </c>
+      <c r="BE30">
+        <v>0.9</v>
+      </c>
+      <c r="BF30">
+        <v>0.9</v>
+      </c>
+      <c r="BG30">
+        <v>0.9</v>
+      </c>
+      <c r="BH30">
+        <v>0.9</v>
+      </c>
+      <c r="BI30">
+        <v>0.9</v>
+      </c>
+      <c r="BJ30">
+        <v>0.9</v>
+      </c>
+      <c r="BK30">
+        <v>0.9</v>
+      </c>
+      <c r="BL30">
+        <v>0.9</v>
+      </c>
+      <c r="BM30">
+        <v>0.9</v>
+      </c>
+      <c r="BN30">
+        <v>0.9</v>
+      </c>
+      <c r="BO30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:67">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>1.2</v>
+      </c>
+      <c r="D31">
+        <v>1.2</v>
+      </c>
+      <c r="E31">
+        <v>1.2</v>
+      </c>
+      <c r="F31">
+        <v>1.2</v>
+      </c>
+      <c r="G31">
+        <v>1.2</v>
+      </c>
+      <c r="H31">
+        <v>1.2</v>
+      </c>
+      <c r="I31">
+        <v>1.2</v>
+      </c>
+      <c r="J31">
+        <v>1.2</v>
+      </c>
+      <c r="K31">
+        <v>1.2</v>
+      </c>
+      <c r="L31">
+        <v>1.2</v>
+      </c>
+      <c r="M31">
+        <v>1.2</v>
+      </c>
+      <c r="N31">
+        <v>1.2</v>
+      </c>
+      <c r="O31">
+        <v>1.2</v>
+      </c>
+      <c r="P31">
+        <v>1.2</v>
+      </c>
+      <c r="Q31">
+        <v>1.2</v>
+      </c>
+      <c r="R31">
+        <v>1.2</v>
+      </c>
+      <c r="S31">
+        <v>1.2</v>
+      </c>
+      <c r="T31">
+        <v>1.2</v>
+      </c>
+      <c r="U31">
+        <v>1.2</v>
+      </c>
+      <c r="V31">
+        <v>1.2</v>
+      </c>
+      <c r="W31">
+        <v>1.2</v>
+      </c>
+      <c r="X31">
+        <v>1.2</v>
+      </c>
+      <c r="Y31">
+        <v>1.2</v>
+      </c>
+      <c r="Z31">
+        <v>1.2</v>
+      </c>
+      <c r="AA31">
+        <v>1.2</v>
+      </c>
+      <c r="AB31">
+        <v>1.2</v>
+      </c>
+      <c r="AC31">
+        <v>1.2</v>
+      </c>
+      <c r="AD31">
+        <v>1.2</v>
+      </c>
+      <c r="AE31">
+        <v>1.2</v>
+      </c>
+      <c r="AF31">
+        <v>1.2</v>
+      </c>
+      <c r="AG31">
+        <v>1.2</v>
+      </c>
+      <c r="AH31">
+        <v>1.2</v>
+      </c>
+      <c r="AI31">
+        <v>1.2</v>
+      </c>
+      <c r="AJ31">
+        <v>1.2</v>
+      </c>
+      <c r="AK31">
+        <v>1.2</v>
+      </c>
+      <c r="AL31">
+        <v>1.2</v>
+      </c>
+      <c r="AM31">
+        <v>1.2</v>
+      </c>
+      <c r="AN31">
+        <v>1.2</v>
+      </c>
+      <c r="AO31">
+        <v>1.2</v>
+      </c>
+      <c r="AP31">
+        <v>1.2</v>
+      </c>
+      <c r="AQ31">
+        <v>1.2</v>
+      </c>
+      <c r="AR31">
+        <v>1.2</v>
+      </c>
+      <c r="AS31">
+        <v>1.2</v>
+      </c>
+      <c r="AT31">
+        <v>1.2</v>
+      </c>
+      <c r="AU31">
+        <v>1.2</v>
+      </c>
+      <c r="AV31">
+        <v>1.2</v>
+      </c>
+      <c r="AW31">
+        <v>1.2</v>
+      </c>
+      <c r="AX31">
+        <v>1.2</v>
+      </c>
+      <c r="AY31">
+        <v>1.2</v>
+      </c>
+      <c r="AZ31">
+        <v>1.2</v>
+      </c>
+      <c r="BA31">
+        <v>1.2</v>
+      </c>
+      <c r="BB31">
+        <v>1.2</v>
+      </c>
+      <c r="BC31">
+        <v>1.2</v>
+      </c>
+      <c r="BD31">
+        <v>1.2</v>
+      </c>
+      <c r="BE31">
+        <v>1.2</v>
+      </c>
+      <c r="BF31">
+        <v>1.2</v>
+      </c>
+      <c r="BG31">
+        <v>1.2</v>
+      </c>
+      <c r="BH31">
+        <v>1.2</v>
+      </c>
+      <c r="BI31">
+        <v>1.2</v>
+      </c>
+      <c r="BJ31">
+        <v>1.2</v>
+      </c>
+      <c r="BK31">
+        <v>1.2</v>
+      </c>
+      <c r="BL31">
+        <v>1.2</v>
+      </c>
+      <c r="BM31">
+        <v>1.2</v>
+      </c>
+      <c r="BN31">
+        <v>1.2</v>
+      </c>
+      <c r="BO31">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:67">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>1.3</v>
+      </c>
+      <c r="D32">
+        <v>1.3</v>
+      </c>
+      <c r="E32">
+        <v>1.3</v>
+      </c>
+      <c r="F32">
+        <v>1.3</v>
+      </c>
+      <c r="G32">
+        <v>1.3</v>
+      </c>
+      <c r="H32">
+        <v>1.3</v>
+      </c>
+      <c r="I32">
+        <v>1.3</v>
+      </c>
+      <c r="J32">
+        <v>1.3</v>
+      </c>
+      <c r="K32">
+        <v>1.3</v>
+      </c>
+      <c r="L32">
+        <v>1.3</v>
+      </c>
+      <c r="M32">
+        <v>1.3</v>
+      </c>
+      <c r="N32">
+        <v>1.3</v>
+      </c>
+      <c r="O32">
+        <v>1.3</v>
+      </c>
+      <c r="P32">
+        <v>1.3</v>
+      </c>
+      <c r="Q32">
+        <v>1.3</v>
+      </c>
+      <c r="R32">
+        <v>1.3</v>
+      </c>
+      <c r="S32">
+        <v>1.3</v>
+      </c>
+      <c r="T32">
+        <v>1.3</v>
+      </c>
+      <c r="U32">
+        <v>1.3</v>
+      </c>
+      <c r="V32">
+        <v>1.3</v>
+      </c>
+      <c r="W32">
+        <v>1.3</v>
+      </c>
+      <c r="X32">
+        <v>1.3</v>
+      </c>
+      <c r="Y32">
+        <v>1.3</v>
+      </c>
+      <c r="Z32">
+        <v>1.3</v>
+      </c>
+      <c r="AA32">
+        <v>1.3</v>
+      </c>
+      <c r="AB32">
+        <v>1.3</v>
+      </c>
+      <c r="AC32">
+        <v>1.3</v>
+      </c>
+      <c r="AD32">
+        <v>1.3</v>
+      </c>
+      <c r="AE32">
+        <v>1.3</v>
+      </c>
+      <c r="AF32">
+        <v>1.3</v>
+      </c>
+      <c r="AG32">
+        <v>1.3</v>
+      </c>
+      <c r="AH32">
+        <v>1.3</v>
+      </c>
+      <c r="AI32">
+        <v>1.3</v>
+      </c>
+      <c r="AJ32">
+        <v>1.3</v>
+      </c>
+      <c r="AK32">
+        <v>1.3</v>
+      </c>
+      <c r="AL32">
+        <v>1.3</v>
+      </c>
+      <c r="AM32">
+        <v>1.3</v>
+      </c>
+      <c r="AN32">
+        <v>1.3</v>
+      </c>
+      <c r="AO32">
+        <v>1.3</v>
+      </c>
+      <c r="AP32">
+        <v>1.3</v>
+      </c>
+      <c r="AQ32">
+        <v>1.3</v>
+      </c>
+      <c r="AR32">
+        <v>1.3</v>
+      </c>
+      <c r="AS32">
+        <v>1.3</v>
+      </c>
+      <c r="AT32">
+        <v>1.3</v>
+      </c>
+      <c r="AU32">
+        <v>1.3</v>
+      </c>
+      <c r="AV32">
+        <v>1.3</v>
+      </c>
+      <c r="AW32">
+        <v>1.3</v>
+      </c>
+      <c r="AX32">
+        <v>1.3</v>
+      </c>
+      <c r="AY32">
+        <v>1.3</v>
+      </c>
+      <c r="AZ32">
+        <v>1.3</v>
+      </c>
+      <c r="BA32">
+        <v>1.3</v>
+      </c>
+      <c r="BB32">
+        <v>1.3</v>
+      </c>
+      <c r="BC32">
+        <v>1.3</v>
+      </c>
+      <c r="BD32">
+        <v>1.3</v>
+      </c>
+      <c r="BE32">
+        <v>1.3</v>
+      </c>
+      <c r="BF32">
+        <v>1.3</v>
+      </c>
+      <c r="BG32">
+        <v>1.3</v>
+      </c>
+      <c r="BH32">
+        <v>1.3</v>
+      </c>
+      <c r="BI32">
+        <v>1.3</v>
+      </c>
+      <c r="BJ32">
+        <v>1.3</v>
+      </c>
+      <c r="BK32">
+        <v>1.3</v>
+      </c>
+      <c r="BL32">
+        <v>1.3</v>
+      </c>
+      <c r="BM32">
+        <v>1.3</v>
+      </c>
+      <c r="BN32">
+        <v>1.3</v>
+      </c>
+      <c r="BO32">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:67">
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>1.3</v>
+      </c>
+      <c r="D33">
+        <v>1.3</v>
+      </c>
+      <c r="E33">
+        <v>1.3</v>
+      </c>
+      <c r="F33">
+        <v>1.3</v>
+      </c>
+      <c r="G33">
+        <v>1.3</v>
+      </c>
+      <c r="H33">
+        <v>1.3</v>
+      </c>
+      <c r="I33">
+        <v>1.3</v>
+      </c>
+      <c r="J33">
+        <v>1.3</v>
+      </c>
+      <c r="K33">
+        <v>1.3</v>
+      </c>
+      <c r="L33">
+        <v>1.3</v>
+      </c>
+      <c r="M33">
+        <v>1.3</v>
+      </c>
+      <c r="N33">
+        <v>1.3</v>
+      </c>
+      <c r="O33">
+        <v>1.3</v>
+      </c>
+      <c r="P33">
+        <v>1.3</v>
+      </c>
+      <c r="Q33">
+        <v>1.3</v>
+      </c>
+      <c r="R33">
+        <v>1.3</v>
+      </c>
+      <c r="S33">
+        <v>1.3</v>
+      </c>
+      <c r="T33">
+        <v>1.3</v>
+      </c>
+      <c r="U33">
+        <v>1.3</v>
+      </c>
+      <c r="V33">
+        <v>1.3</v>
+      </c>
+      <c r="W33">
+        <v>1.3</v>
+      </c>
+      <c r="X33">
+        <v>1.3</v>
+      </c>
+      <c r="Y33">
+        <v>1.3</v>
+      </c>
+      <c r="Z33">
+        <v>1.3</v>
+      </c>
+      <c r="AA33">
+        <v>1.3</v>
+      </c>
+      <c r="AB33">
+        <v>1.3</v>
+      </c>
+      <c r="AC33">
+        <v>1.3</v>
+      </c>
+      <c r="AD33">
+        <v>1.3</v>
+      </c>
+      <c r="AE33">
+        <v>1.3</v>
+      </c>
+      <c r="AF33">
+        <v>1.3</v>
+      </c>
+      <c r="AG33">
+        <v>1.3</v>
+      </c>
+      <c r="AH33">
+        <v>1.3</v>
+      </c>
+      <c r="AI33">
+        <v>1.3</v>
+      </c>
+      <c r="AJ33">
+        <v>1.3</v>
+      </c>
+      <c r="AK33">
+        <v>1.3</v>
+      </c>
+      <c r="AL33">
+        <v>1.3</v>
+      </c>
+      <c r="AM33">
+        <v>1.3</v>
+      </c>
+      <c r="AN33">
+        <v>1.3</v>
+      </c>
+      <c r="AO33">
+        <v>1.3</v>
+      </c>
+      <c r="AP33">
+        <v>1.3</v>
+      </c>
+      <c r="AQ33">
+        <v>1.3</v>
+      </c>
+      <c r="AR33">
+        <v>1.3</v>
+      </c>
+      <c r="AS33">
+        <v>1.3</v>
+      </c>
+      <c r="AT33">
+        <v>1.3</v>
+      </c>
+      <c r="AU33">
+        <v>1.3</v>
+      </c>
+      <c r="AV33">
+        <v>1.3</v>
+      </c>
+      <c r="AW33">
+        <v>1.3</v>
+      </c>
+      <c r="AX33">
+        <v>1.3</v>
+      </c>
+      <c r="AY33">
+        <v>1.3</v>
+      </c>
+      <c r="AZ33">
+        <v>1.3</v>
+      </c>
+      <c r="BA33">
+        <v>1.3</v>
+      </c>
+      <c r="BB33">
+        <v>1.3</v>
+      </c>
+      <c r="BC33">
+        <v>1.3</v>
+      </c>
+      <c r="BD33">
+        <v>1.3</v>
+      </c>
+      <c r="BE33">
+        <v>1.3</v>
+      </c>
+      <c r="BF33">
+        <v>1.3</v>
+      </c>
+      <c r="BG33">
+        <v>1.3</v>
+      </c>
+      <c r="BH33">
+        <v>1.3</v>
+      </c>
+      <c r="BI33">
+        <v>1.3</v>
+      </c>
+      <c r="BJ33">
+        <v>1.3</v>
+      </c>
+      <c r="BK33">
+        <v>1.3</v>
+      </c>
+      <c r="BL33">
+        <v>1.3</v>
+      </c>
+      <c r="BM33">
+        <v>1.3</v>
+      </c>
+      <c r="BN33">
+        <v>1.3</v>
+      </c>
+      <c r="BO33">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:67">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>1.3</v>
+      </c>
+      <c r="D34">
+        <v>1.3</v>
+      </c>
+      <c r="E34">
+        <v>1.3</v>
+      </c>
+      <c r="F34">
+        <v>1.3</v>
+      </c>
+      <c r="G34">
+        <v>1.3</v>
+      </c>
+      <c r="H34">
+        <v>1.3</v>
+      </c>
+      <c r="I34">
+        <v>1.3</v>
+      </c>
+      <c r="J34">
+        <v>1.3</v>
+      </c>
+      <c r="K34">
+        <v>1.3</v>
+      </c>
+      <c r="L34">
+        <v>1.3</v>
+      </c>
+      <c r="M34">
+        <v>1.3</v>
+      </c>
+      <c r="N34">
+        <v>1.3</v>
+      </c>
+      <c r="O34">
+        <v>1.3</v>
+      </c>
+      <c r="P34">
+        <v>1.3</v>
+      </c>
+      <c r="Q34">
+        <v>1.3</v>
+      </c>
+      <c r="R34">
+        <v>1.3</v>
+      </c>
+      <c r="S34">
+        <v>1.3</v>
+      </c>
+      <c r="T34">
+        <v>1.3</v>
+      </c>
+      <c r="U34">
+        <v>1.3</v>
+      </c>
+      <c r="V34">
+        <v>1.3</v>
+      </c>
+      <c r="W34">
+        <v>1.3</v>
+      </c>
+      <c r="X34">
+        <v>1.3</v>
+      </c>
+      <c r="Y34">
+        <v>1.3</v>
+      </c>
+      <c r="Z34">
+        <v>1.3</v>
+      </c>
+      <c r="AA34">
+        <v>1.3</v>
+      </c>
+      <c r="AB34">
+        <v>1.3</v>
+      </c>
+      <c r="AC34">
+        <v>1.3</v>
+      </c>
+      <c r="AD34">
+        <v>1.3</v>
+      </c>
+      <c r="AE34">
+        <v>1.3</v>
+      </c>
+      <c r="AF34">
+        <v>1.3</v>
+      </c>
+      <c r="AG34">
+        <v>1.3</v>
+      </c>
+      <c r="AH34">
+        <v>1.3</v>
+      </c>
+      <c r="AI34">
+        <v>1.3</v>
+      </c>
+      <c r="AJ34">
+        <v>1.3</v>
+      </c>
+      <c r="AK34">
+        <v>1.3</v>
+      </c>
+      <c r="AL34">
+        <v>1.3</v>
+      </c>
+      <c r="AM34">
+        <v>1.3</v>
+      </c>
+      <c r="AN34">
+        <v>1.3</v>
+      </c>
+      <c r="AO34">
+        <v>1.3</v>
+      </c>
+      <c r="AP34">
+        <v>1.3</v>
+      </c>
+      <c r="AQ34">
+        <v>1.3</v>
+      </c>
+      <c r="AR34">
+        <v>1.3</v>
+      </c>
+      <c r="AS34">
+        <v>1.3</v>
+      </c>
+      <c r="AT34">
+        <v>1.3</v>
+      </c>
+      <c r="AU34">
+        <v>1.3</v>
+      </c>
+      <c r="AV34">
+        <v>1.3</v>
+      </c>
+      <c r="AW34">
+        <v>1.3</v>
+      </c>
+      <c r="AX34">
+        <v>1.3</v>
+      </c>
+      <c r="AY34">
+        <v>1.3</v>
+      </c>
+      <c r="AZ34">
+        <v>1.3</v>
+      </c>
+      <c r="BA34">
+        <v>1.3</v>
+      </c>
+      <c r="BB34">
+        <v>1.3</v>
+      </c>
+      <c r="BC34">
+        <v>1.3</v>
+      </c>
+      <c r="BD34">
+        <v>1.3</v>
+      </c>
+      <c r="BE34">
+        <v>1.3</v>
+      </c>
+      <c r="BF34">
+        <v>1.3</v>
+      </c>
+      <c r="BG34">
+        <v>1.3</v>
+      </c>
+      <c r="BH34">
+        <v>1.3</v>
+      </c>
+      <c r="BI34">
+        <v>1.3</v>
+      </c>
+      <c r="BJ34">
+        <v>1.3</v>
+      </c>
+      <c r="BK34">
+        <v>1.3</v>
+      </c>
+      <c r="BL34">
+        <v>1.3</v>
+      </c>
+      <c r="BM34">
+        <v>1.3</v>
+      </c>
+      <c r="BN34">
+        <v>1.3</v>
+      </c>
+      <c r="BO34">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:67">
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>1.3</v>
+      </c>
+      <c r="D35">
+        <v>1.3</v>
+      </c>
+      <c r="E35">
+        <v>1.3</v>
+      </c>
+      <c r="F35">
+        <v>1.3</v>
+      </c>
+      <c r="G35">
+        <v>1.3</v>
+      </c>
+      <c r="H35">
+        <v>1.3</v>
+      </c>
+      <c r="I35">
+        <v>1.3</v>
+      </c>
+      <c r="J35">
+        <v>1.3</v>
+      </c>
+      <c r="K35">
+        <v>1.3</v>
+      </c>
+      <c r="L35">
+        <v>1.3</v>
+      </c>
+      <c r="M35">
+        <v>1.3</v>
+      </c>
+      <c r="N35">
+        <v>1.3</v>
+      </c>
+      <c r="O35">
+        <v>1.3</v>
+      </c>
+      <c r="P35">
+        <v>1.3</v>
+      </c>
+      <c r="Q35">
+        <v>1.3</v>
+      </c>
+      <c r="R35">
+        <v>1.3</v>
+      </c>
+      <c r="S35">
+        <v>1.3</v>
+      </c>
+      <c r="T35">
+        <v>1.3</v>
+      </c>
+      <c r="U35">
+        <v>1.3</v>
+      </c>
+      <c r="V35">
+        <v>1.3</v>
+      </c>
+      <c r="W35">
+        <v>1.3</v>
+      </c>
+      <c r="X35">
+        <v>1.3</v>
+      </c>
+      <c r="Y35">
+        <v>1.3</v>
+      </c>
+      <c r="Z35">
+        <v>1.3</v>
+      </c>
+      <c r="AA35">
+        <v>1.3</v>
+      </c>
+      <c r="AB35">
+        <v>1.3</v>
+      </c>
+      <c r="AC35">
+        <v>1.3</v>
+      </c>
+      <c r="AD35">
+        <v>1.3</v>
+      </c>
+      <c r="AE35">
+        <v>1.3</v>
+      </c>
+      <c r="AF35">
+        <v>1.3</v>
+      </c>
+      <c r="AG35">
+        <v>1.3</v>
+      </c>
+      <c r="AH35">
+        <v>1.3</v>
+      </c>
+      <c r="AI35">
+        <v>1.3</v>
+      </c>
+      <c r="AJ35">
+        <v>1.3</v>
+      </c>
+      <c r="AK35">
+        <v>1.3</v>
+      </c>
+      <c r="AL35">
+        <v>1.3</v>
+      </c>
+      <c r="AM35">
+        <v>1.3</v>
+      </c>
+      <c r="AN35">
+        <v>1.3</v>
+      </c>
+      <c r="AO35">
+        <v>1.3</v>
+      </c>
+      <c r="AP35">
+        <v>1.3</v>
+      </c>
+      <c r="AQ35">
+        <v>1.3</v>
+      </c>
+      <c r="AR35">
+        <v>1.3</v>
+      </c>
+      <c r="AS35">
+        <v>1.3</v>
+      </c>
+      <c r="AT35">
+        <v>1.3</v>
+      </c>
+      <c r="AU35">
+        <v>1.3</v>
+      </c>
+      <c r="AV35">
+        <v>1.3</v>
+      </c>
+      <c r="AW35">
+        <v>1.3</v>
+      </c>
+      <c r="AX35">
+        <v>1.3</v>
+      </c>
+      <c r="AY35">
+        <v>1.3</v>
+      </c>
+      <c r="AZ35">
+        <v>1.3</v>
+      </c>
+      <c r="BA35">
+        <v>1.3</v>
+      </c>
+      <c r="BB35">
+        <v>1.3</v>
+      </c>
+      <c r="BC35">
+        <v>1.3</v>
+      </c>
+      <c r="BD35">
+        <v>1.3</v>
+      </c>
+      <c r="BE35">
+        <v>1.3</v>
+      </c>
+      <c r="BF35">
+        <v>1.3</v>
+      </c>
+      <c r="BG35">
+        <v>1.3</v>
+      </c>
+      <c r="BH35">
+        <v>1.3</v>
+      </c>
+      <c r="BI35">
+        <v>1.3</v>
+      </c>
+      <c r="BJ35">
+        <v>1.3</v>
+      </c>
+      <c r="BK35">
+        <v>1.3</v>
+      </c>
+      <c r="BL35">
+        <v>1.3</v>
+      </c>
+      <c r="BM35">
+        <v>1.3</v>
+      </c>
+      <c r="BN35">
+        <v>1.3</v>
+      </c>
+      <c r="BO35">
+        <v>1.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/fuels.xlsx
+++ b/data/fuels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fuel_data" sheetId="1" r:id="rId1"/>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:B51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O43" sqref="G43:O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,33 +1154,7 @@
       <c r="E43" s="1">
         <v>86</v>
       </c>
-      <c r="G43" s="1">
-        <v>86</v>
-      </c>
-      <c r="H43" s="1">
-        <v>86</v>
-      </c>
-      <c r="I43" s="1">
-        <v>66</v>
-      </c>
-      <c r="J43" s="1">
-        <v>73</v>
-      </c>
-      <c r="K43" s="1">
-        <v>94</v>
-      </c>
-      <c r="L43" s="1">
-        <v>90</v>
-      </c>
-      <c r="M43" s="1">
-        <v>2</v>
-      </c>
-      <c r="N43" s="1">
-        <v>2</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0.147222222222222</v>
-      </c>
+      <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="str">
@@ -1319,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>

--- a/data/fuels.xlsx
+++ b/data/fuels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fuel_data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>Hydrogen</t>
   </si>
@@ -176,6 +176,21 @@
   </si>
   <si>
     <t>"</t>
+  </si>
+  <si>
+    <t>Lower heating value</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>MJ/kg</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study on the use of ethyl and methyl alcohol as alternative fuels in shipping </t>
   </si>
 </sst>
 </file>
@@ -233,16 +248,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>48160</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>86260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>284033</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>37268</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>27362</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -259,8 +274,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7686675" y="619660"/>
-          <a:ext cx="7837358" cy="3799108"/>
+          <a:off x="6619875" y="467260"/>
+          <a:ext cx="4989887" cy="2418815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8852</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12306300" y="619125"/>
+          <a:ext cx="5380952" cy="1914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -535,17 +588,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="K6" sqref="K5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:11">
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50.113999999999997</v>
+      </c>
+      <c r="H6" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="E7" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -554,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="O43" sqref="G43:O43"/>
     </sheetView>
   </sheetViews>
@@ -1293,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BO35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/fuels.xlsx
+++ b/data/fuels.xlsx
@@ -248,16 +248,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>86260</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>27362</xdr:colOff>
+      <xdr:colOff>141662</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -274,7 +274,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619875" y="467260"/>
+          <a:off x="6734175" y="591085"/>
           <a:ext cx="4989887" cy="2418815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1413,7 +1413,7 @@
   <dimension ref="B2:BO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/fuels.xlsx
+++ b/data/fuels.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
   <si>
     <t>Hydrogen</t>
   </si>
@@ -324,6 +324,9 @@
   <si>
     <t>[$/MWh]</t>
   </si>
+  <si>
+    <t>€/GJ</t>
+  </si>
 </sst>
 </file>
 
@@ -489,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
@@ -529,18 +532,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -558,11 +549,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,432 +1082,432 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
+      <c r="A1" s="35"/>
       <c r="B1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="40" t="s">
+      <c r="Q4" s="35"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="42">
         <v>575</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="42">
         <v>600</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="42">
         <v>450</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42">
         <v>675</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46">
+      <c r="H5" s="42"/>
+      <c r="I5" s="42">
         <v>925</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="42">
         <v>525</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="38">
         <v>100</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="Q5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="42">
         <v>2020</v>
       </c>
-      <c r="S5" s="42">
+      <c r="S5" s="38">
         <v>0.53</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="42">
         <v>25</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="42">
         <v>25</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="42">
         <v>120</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42">
         <v>25</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46">
+      <c r="H6" s="42"/>
+      <c r="I6" s="42">
         <v>55</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="42">
         <v>60</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="38">
         <v>10</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="46">
+      <c r="Q6" s="37"/>
+      <c r="R6" s="42">
         <v>2030</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="38">
         <v>0.43</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="42">
         <v>10</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="42">
         <v>10</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="42">
         <v>15</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42">
         <v>10</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46">
+      <c r="H7" s="42"/>
+      <c r="I7" s="42">
         <v>20</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="42">
         <v>15</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="38">
         <v>5</v>
       </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="46">
+      <c r="Q7" s="37"/>
+      <c r="R7" s="42">
         <v>2040</v>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="38">
         <v>0.24</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="42"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="47">
+      <c r="A8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="38"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="43">
         <v>2050</v>
       </c>
-      <c r="S8" s="44">
+      <c r="S8" s="40">
         <v>0.09</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="42">
         <v>524</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="42">
         <v>541</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="42">
         <v>412</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="42">
         <v>0</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="42">
         <v>522</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46">
+      <c r="H10" s="42"/>
+      <c r="I10" s="42">
         <v>0</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="42">
         <v>0</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="42">
         <v>0.01</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="42">
         <v>0.01</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="42">
         <v>3</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="42">
         <v>0</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="42">
         <v>0</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46">
+      <c r="H11" s="42"/>
+      <c r="I11" s="42">
         <v>0</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="42">
         <v>0</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="42">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="42">
         <v>2.7E-2</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="42">
         <v>1.6E-2</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="42">
         <v>0</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="42">
         <v>0</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46">
+      <c r="H12" s="42"/>
+      <c r="I12" s="42">
         <v>0</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="42">
         <v>0</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="42">
         <v>0.32</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="42">
         <v>3.23</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="42">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="42">
         <v>0</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="42">
         <v>0</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46">
+      <c r="H13" s="42"/>
+      <c r="I13" s="42">
         <v>0</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="42">
         <v>0</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="42">
         <v>14.8</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="42">
         <v>15.8</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="42">
         <v>1.17</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="42">
         <v>0</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="42">
         <v>3.05</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42">
         <v>0</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="42">
         <v>0</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="43">
         <v>0.16</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="43">
         <v>0.72</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="43">
         <v>2.7E-2</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="43">
         <v>0</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="43">
         <v>0</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47">
+      <c r="H15" s="43"/>
+      <c r="I15" s="43">
         <v>0</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="43">
         <v>0</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1513,262 +1517,262 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="42"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="38"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="42">
         <v>74</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="42">
         <v>76</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="42">
         <v>56</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="42">
         <v>56</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="42">
         <v>64</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="42">
         <v>72</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="42">
         <v>0</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="42">
         <v>0</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="42">
         <v>0</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="42">
         <v>0</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="43">
         <v>12</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="43">
         <v>10</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="43">
         <v>10</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="43">
         <v>8</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="43">
         <v>9</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="43">
         <v>22</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="43">
         <v>8</v>
       </c>
-      <c r="J23" s="47">
+      <c r="J23" s="43">
         <v>67</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="43">
         <v>20</v>
       </c>
-      <c r="L23" s="47">
+      <c r="L23" s="43">
         <v>90</v>
       </c>
-      <c r="M23" s="44">
+      <c r="M23" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="F26" s="39" t="s">
+      <c r="C26" s="36"/>
+      <c r="F26" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="40"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="38">
         <v>8.1479999999999997</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="38">
         <v>74.099999999999994</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="38">
         <v>6.6</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="38">
         <v>56.1</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="38">
         <v>7.7279999999999998</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="38">
         <v>69.099999999999994</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="38">
         <v>0</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="40">
         <v>71.400000000000006</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="42"/>
+      <c r="C35" s="38"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1938,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BQ75"/>
+  <dimension ref="B2:BQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,18 +1967,18 @@
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35" t="s">
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
@@ -1983,38 +1987,38 @@
       <c r="D6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="57">
         <v>30</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37">
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57">
         <v>20</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37" t="s">
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37" t="s">
+      <c r="J7" s="57"/>
+      <c r="K7" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="58"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="16"/>
@@ -2243,7 +2247,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="35" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -2252,19 +2256,19 @@
       <c r="E21" s="11">
         <v>724</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="46" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="16"/>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="48" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2276,52 +2280,52 @@
       <c r="E23" s="19">
         <v>815</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="49" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="13"/>
-      <c r="D24" s="51"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="48"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="56" t="s">
+      <c r="F25" s="54"/>
+      <c r="G25" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="35" t="s">
+      <c r="H25" s="55"/>
+      <c r="I25" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="36"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="16"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="44" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="44" t="s">
         <v>96</v>
       </c>
       <c r="J26" s="15" t="s">
@@ -2330,13 +2334,13 @@
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="16"/>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="44" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="13">
         <v>393</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="44">
         <v>35.4</v>
       </c>
       <c r="G27" s="13">
@@ -2354,13 +2358,13 @@
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="16"/>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="44" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="13">
         <v>718</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="44">
         <v>60.1</v>
       </c>
       <c r="G28" s="13">
@@ -2378,13 +2382,13 @@
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" s="16"/>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="44" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="13">
         <v>709</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="44">
         <v>51.1</v>
       </c>
       <c r="G29" s="13">
@@ -2402,13 +2406,13 @@
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C30" s="16"/>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="50">
         <v>398</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="44">
         <v>71.599999999999994</v>
       </c>
       <c r="G30" s="13">
@@ -2426,13 +2430,13 @@
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C31" s="18"/>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="53">
         <v>570</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F31" s="52">
         <v>69.5</v>
       </c>
       <c r="G31" s="19">
@@ -2450,33 +2454,33 @@
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C32" s="13"/>
-      <c r="D32" s="51"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="48"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="13"/>
-      <c r="D33" s="51"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="48"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="13"/>
-      <c r="D34" s="51"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="48"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="13"/>
-      <c r="D35" s="51"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="48"/>
+      <c r="F35" s="44"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="13"/>
-      <c r="D36" s="51"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="48"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
@@ -2540,13 +2544,13 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E44" s="45">
         <v>50</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -2554,13 +2558,13 @@
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="49">
+      <c r="E45" s="45">
         <v>20</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -2568,13 +2572,13 @@
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="49">
+      <c r="E46" s="45">
         <v>28</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -5538,7 +5542,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="4:69" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
       <c r="E65">
         <v>2011</v>
       </c>
@@ -5799,7 +5806,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="66" spans="4:69" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:69" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>8</v>
       </c>
@@ -6064,7 +6071,7 @@
         <v>5.8805693069306931E-3</v>
       </c>
     </row>
-    <row r="67" spans="4:69" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:69" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>42</v>
       </c>
@@ -6329,7 +6336,7 @@
         <v>1.2750000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="4:69" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:69" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>7</v>
       </c>
@@ -6594,7 +6601,7 @@
         <v>6.2726072607260722E-3</v>
       </c>
     </row>
-    <row r="69" spans="4:69" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:69" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>1</v>
       </c>
@@ -6859,7 +6866,7 @@
         <v>7.0566831683168312E-3</v>
       </c>
     </row>
-    <row r="70" spans="4:69" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:69" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>13</v>
       </c>
@@ -7124,7 +7131,7 @@
         <v>9.4089108910891082E-3</v>
       </c>
     </row>
-    <row r="71" spans="4:69" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:69" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>43</v>
       </c>
@@ -7389,7 +7396,7 @@
         <v>1.0624999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="4:69" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:69" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>44</v>
       </c>
@@ -7654,7 +7661,7 @@
         <v>1.4166666666666666E-2</v>
       </c>
     </row>
-    <row r="73" spans="4:69" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:69" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>88</v>
       </c>
@@ -7919,7 +7926,7 @@
         <v>1.2580000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="4:69" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:69" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>89</v>
       </c>
@@ -8184,7 +8191,7 @@
         <v>1.5980000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="4:69" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:69" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>12</v>
       </c>
@@ -8447,6 +8454,2634 @@
       <c r="BQ75" s="34">
         <f t="shared" si="89"/>
         <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="C78" s="34">
+        <v>1000</v>
+      </c>
+      <c r="E78" s="59">
+        <f>+E66*$C$78</f>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="F78" s="59">
+        <f t="shared" ref="F78:BQ82" si="90">+F66*$C$78</f>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="G78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="H78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="I78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="J78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="K78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="L78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="M78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="N78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="O78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="P78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="Q78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="R78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="S78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="T78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="U78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="V78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="W78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="X78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="Y78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="Z78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AA78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AB78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AC78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AD78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AE78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AF78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AG78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AH78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AI78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AJ78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AK78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AL78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AM78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AN78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AO78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AP78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AQ78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AR78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AS78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AT78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AU78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AV78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AW78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AX78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AY78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="AZ78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BA78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BB78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BC78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BD78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BE78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BF78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BG78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BH78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BI78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BJ78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BK78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BL78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BM78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BN78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BO78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BP78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+      <c r="BQ78" s="59">
+        <f t="shared" si="90"/>
+        <v>5.8805693069306928</v>
+      </c>
+    </row>
+    <row r="79" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="E79" s="59">
+        <f t="shared" ref="E79:T87" si="91">+E67*$C$78</f>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="F79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="G79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="H79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="I79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="J79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="K79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="L79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="M79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="N79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="O79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="P79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="Q79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="R79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="S79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="T79" s="59">
+        <f t="shared" si="91"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="U79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="V79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="W79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="X79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="Y79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="Z79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AA79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AB79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AC79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AD79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AE79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AF79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AG79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AH79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AI79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AJ79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AK79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AL79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AM79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AN79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AO79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AP79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AQ79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AR79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AS79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AT79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AU79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AV79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AW79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AX79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AY79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AZ79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BA79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BB79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BC79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BD79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BE79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BF79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BG79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BH79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BI79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BJ79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BK79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BL79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BM79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BN79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BO79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BP79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="BQ79" s="59">
+        <f t="shared" si="90"/>
+        <v>12.750000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="E80" s="59">
+        <f t="shared" si="91"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="F80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="G80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="H80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="I80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="J80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="K80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="L80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="M80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="N80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="O80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="P80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="Q80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="R80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="S80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="T80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="U80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="V80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="W80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="X80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="Y80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="Z80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AA80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AB80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AC80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AD80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AE80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AF80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AG80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AH80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AI80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AJ80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AK80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AL80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AM80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AN80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AO80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AP80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AQ80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AR80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AS80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AT80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AU80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AV80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AW80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AX80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AY80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="AZ80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BA80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BB80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BC80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BD80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BE80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BF80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BG80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BH80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BI80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BJ80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BK80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BL80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BM80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BN80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BO80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BP80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+      <c r="BQ80" s="59">
+        <f t="shared" si="90"/>
+        <v>6.2726072607260726</v>
+      </c>
+    </row>
+    <row r="81" spans="5:69" x14ac:dyDescent="0.25">
+      <c r="E81" s="59">
+        <f t="shared" si="91"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="F81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="G81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="H81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="I81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="J81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="K81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="L81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="M81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="N81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="O81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="P81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="Q81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="R81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="S81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="T81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="U81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="V81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="W81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="X81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="Y81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="Z81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AA81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AB81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AC81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AD81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AE81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AF81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AG81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AH81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AI81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AJ81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AK81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AL81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AM81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AN81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AO81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AP81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AQ81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AR81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AS81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AT81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AU81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AV81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AW81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AX81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AY81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="AZ81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BA81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BB81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BC81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BD81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BE81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BF81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BG81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BH81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BI81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BJ81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BK81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BL81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BM81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BN81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BO81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BP81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+      <c r="BQ81" s="59">
+        <f t="shared" si="90"/>
+        <v>7.0566831683168312</v>
+      </c>
+    </row>
+    <row r="82" spans="5:69" x14ac:dyDescent="0.25">
+      <c r="E82" s="59">
+        <f t="shared" si="91"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="F82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="G82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="H82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="I82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="J82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="K82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="L82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="M82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="N82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="O82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="P82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="Q82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="R82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="S82" s="59">
+        <f t="shared" si="90"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="T82" s="59">
+        <f t="shared" ref="F82:BQ86" si="92">+T70*$C$78</f>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="U82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="V82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="W82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="X82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="Y82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="Z82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AA82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AB82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AC82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AD82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AE82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AF82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AG82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AH82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AI82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AJ82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AK82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AL82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AM82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AN82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AO82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AP82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AQ82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AR82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AS82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AT82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AU82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AV82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AW82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AX82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AY82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="AZ82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BA82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BB82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BC82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BD82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BE82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BF82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BG82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BH82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BI82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BJ82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BK82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BL82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BM82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BN82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BO82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BP82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+      <c r="BQ82" s="59">
+        <f t="shared" si="92"/>
+        <v>9.4089108910891088</v>
+      </c>
+    </row>
+    <row r="83" spans="5:69" x14ac:dyDescent="0.25">
+      <c r="E83" s="59">
+        <f t="shared" si="91"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="F83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="G83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="H83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="I83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="J83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="K83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="L83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="M83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="N83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="O83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="P83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="Q83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="R83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="S83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="T83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="U83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="V83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="W83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="X83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="Y83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="Z83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AA83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AB83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AC83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AD83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AE83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AF83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AG83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AH83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AI83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AJ83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AK83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AL83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AM83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AN83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AO83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AP83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AQ83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AR83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AS83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AT83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AU83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AV83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AW83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AX83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AY83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="AZ83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BA83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BB83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BC83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BD83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BE83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BF83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BG83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BH83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BI83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BJ83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BK83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BL83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BM83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BN83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BO83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BP83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+      <c r="BQ83" s="59">
+        <f t="shared" si="92"/>
+        <v>10.624999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="5:69" x14ac:dyDescent="0.25">
+      <c r="E84" s="59">
+        <f t="shared" si="91"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="F84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="G84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="H84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="I84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="J84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="K84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="L84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="M84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="N84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="O84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="P84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="Q84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="R84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="S84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="T84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="U84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="V84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="W84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="X84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="Y84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="Z84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AA84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AB84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AC84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AD84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AE84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AF84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AG84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AH84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AI84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AJ84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AK84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AL84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AM84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AN84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AO84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AP84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AQ84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AR84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AS84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AT84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AU84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AV84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AW84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AX84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AY84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AZ84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BA84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BB84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BC84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BD84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BE84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BF84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BG84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BH84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BI84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BJ84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BK84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BL84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BM84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BN84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BO84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BP84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="BQ84" s="59">
+        <f t="shared" si="92"/>
+        <v>14.166666666666666</v>
+      </c>
+    </row>
+    <row r="85" spans="5:69" x14ac:dyDescent="0.25">
+      <c r="E85" s="59">
+        <f t="shared" si="91"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="F85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="G85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="H85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="I85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="J85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="K85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="L85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="M85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="N85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="O85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="P85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="Q85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="R85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="S85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="T85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="U85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="V85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="W85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="X85" s="59">
+        <f t="shared" si="92"/>
+        <v>38.844999999999999</v>
+      </c>
+      <c r="Y85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="Z85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AA85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AB85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AC85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AD85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AE85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AF85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AG85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AH85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AI85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AJ85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AK85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AL85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AM85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AN85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AO85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AP85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AQ85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AR85" s="59">
+        <f t="shared" si="92"/>
+        <v>20.484999999999999</v>
+      </c>
+      <c r="AS85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="AT85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="AU85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="AV85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="AW85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="AX85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="AY85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="AZ85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BA85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BB85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BC85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BD85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BE85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BF85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BG85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BH85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BI85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BJ85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BK85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BL85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BM85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BN85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BO85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BP85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+      <c r="BQ85" s="59">
+        <f t="shared" si="92"/>
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="86" spans="5:69" x14ac:dyDescent="0.25">
+      <c r="E86" s="59">
+        <f t="shared" si="91"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="F86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="G86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="H86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="I86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="J86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="K86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="L86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="M86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="N86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="O86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="P86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="Q86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="R86" s="59">
+        <f t="shared" si="92"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="S86" s="59">
+        <f t="shared" ref="F86:BQ87" si="93">+S74*$C$78</f>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="T86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="U86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="V86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="W86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="X86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="Y86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="Z86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AA86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AB86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AC86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AD86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AE86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AF86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AG86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AH86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AI86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AJ86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AK86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AL86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AM86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AN86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AO86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AP86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AQ86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AR86" s="59">
+        <f t="shared" si="93"/>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="AS86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="AT86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="AU86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="AV86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="AW86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="AX86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="AY86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="AZ86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BA86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BB86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BC86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BD86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BE86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BF86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BG86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BH86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BI86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BJ86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BK86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BL86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BM86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BN86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BO86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BP86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+      <c r="BQ86" s="59">
+        <f t="shared" si="93"/>
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="87" spans="5:69" x14ac:dyDescent="0.25">
+      <c r="E87" s="59">
+        <f t="shared" si="91"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="I87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="J87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="K87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="L87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="N87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="O87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="P87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="Q87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="R87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="S87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="T87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="U87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="V87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="W87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="X87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="Y87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="Z87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AA87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AB87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AC87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AD87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AE87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AF87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AG87" s="59">
+        <f t="shared" si="93"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AH87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AI87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AJ87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AK87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AL87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AM87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AN87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AO87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AP87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AQ87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AR87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AS87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AT87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AU87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AV87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AW87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AX87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AY87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AZ87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BA87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BB87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BC87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BD87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BE87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BF87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BG87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BH87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BI87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BJ87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BK87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BL87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BM87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BN87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BO87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BP87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="BQ87" s="59">
+        <f t="shared" si="93"/>
+        <v>5.5555555555555554</v>
       </c>
     </row>
   </sheetData>
